--- a/Dashboards/TS12.xlsx
+++ b/Dashboards/TS12.xlsx
@@ -232,7 +232,7 @@
     <x:t>1,6 (26/16)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,1 (1276/1196)</x:t>
+    <x:t>1,1 (1288/1222)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (2/2)</x:t>
@@ -265,7 +265,7 @@
     <x:t>1,0 (183/183)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,8 (196/110)</x:t>
+    <x:t>1,5 (208/136)</x:t>
   </x:si>
   <x:si>
     <x:t>1,0 (569/575)</x:t>
@@ -763,10 +763,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>3587.81695192308</x:v>
+        <x:v>3614.15806089744</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>200138.106145833</x:v>
+        <x:v>200480.5405625</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s"/>
       <x:c r="F2" s="16" t="n">
@@ -806,7 +806,7 @@
         <x:v>6012.37866666674</x:v>
       </x:c>
       <x:c r="R2" s="16" t="n">
-        <x:v>6605.769375</x:v>
+        <x:v>6948.20379166666</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
